--- a/分析设计/报表/财务报表/齐友转账信息2015.5.15.xlsx
+++ b/分析设计/报表/财务报表/齐友转账信息2015.5.15.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,31 +65,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>齐友2015年5月15号付房租（未到账登记的款项）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间段打款金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.3.1-2015。6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间区间</t>
+    <t>开户行名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月5号/15号/25号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐友2015年5月15号付房租（未到账登记的款项）(合并同一业主)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,11 +207,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -216,74 +224,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,14 +233,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -367,7 +307,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -402,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,43 +516,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="20.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="12.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -630,19 +570,22 @@
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -658,34 +601,36 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>4200</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6">
-        <f>SUM(G3)</f>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="6">
+        <f>SUM(H3)</f>
         <v>4200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -695,12 +640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -709,12 +654,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/分析设计/报表/财务报表/齐友转账信息2015.5.15.xlsx
+++ b/分析设计/报表/财务报表/齐友转账信息2015.5.15.xlsx
@@ -77,11 +77,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每月5号/15号/25号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>齐友2015年5月15号付房租（未到账登记的款项）(合并同一业主)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月5号/15号/25号(可多选)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +523,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,7 +536,7 @@
     <col min="6" max="6" width="12.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="11" width="20.375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
@@ -544,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -609,7 +609,7 @@
         <v>4200</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.25">
